--- a/Practical14/autophagosome.xlsx
+++ b/Practical14/autophagosome.xlsx
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
